--- a/inst/doc/xlsx/LOBSTAHS_rt.windows.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_rt.windows.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\R\LOBSTAHS-DEV\inst\doc\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\R\LOBSTAHS-JEH\inst\doc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LOBSTAHS_rt.windows" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="125">
   <si>
     <t>rt_win_max</t>
   </si>
@@ -397,6 +397,12 @@
   </si>
   <si>
     <t>PDMS27</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Added PA</t>
   </si>
 </sst>
 </file>
@@ -833,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -925,7 +931,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="B9">
         <v>20.7</v>
@@ -936,7 +942,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>20.7</v>
@@ -946,59 +952,59 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>27</v>
+      <c r="A11" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>10.8</v>
+        <v>20.7</v>
       </c>
       <c r="C11">
-        <v>10.199999999999999</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>10.8</v>
       </c>
       <c r="C12">
-        <v>10.8</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>10.8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>30</v>
+      <c r="A14" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C14">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
         <v>15.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>5.6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <v>15.8</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>5.6</v>
@@ -1006,81 +1012,84 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>15.8</v>
       </c>
       <c r="C18">
-        <v>15.3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19">
-        <v>8.5</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>8.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21">
-        <v>15.3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22">
-        <v>7.7</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23">
-        <v>13.4</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26">
-        <v>16.2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -1088,48 +1097,45 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>13.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30">
-        <v>18.5</v>
-      </c>
-      <c r="C30">
-        <v>6.5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>18.5</v>
+      </c>
+      <c r="C31">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>22.7</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32">
-        <v>20.7</v>
-      </c>
-      <c r="C32">
-        <v>6.7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33">
         <v>20.7</v>
@@ -1140,7 +1146,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B34">
         <v>20.7</v>
@@ -1151,84 +1157,84 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B35">
-        <v>18.3</v>
+        <v>20.7</v>
       </c>
       <c r="C35">
-        <v>14.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>18.3</v>
+      </c>
+      <c r="C36">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>17.2</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>13.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37">
-        <v>17.3</v>
-      </c>
-      <c r="C37">
-        <v>13.3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39">
-        <v>19.3</v>
+        <v>17</v>
       </c>
       <c r="C39">
-        <v>15.3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40">
-        <v>19.100000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="C40">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>20</v>
@@ -1239,7 +1245,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>20</v>
@@ -1250,7 +1256,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>20</v>
@@ -1261,7 +1267,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>20</v>
@@ -1272,7 +1278,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>20</v>
@@ -1283,7 +1289,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B47">
         <v>20</v>
@@ -1294,7 +1300,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>20</v>
@@ -1305,7 +1311,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>20</v>
@@ -1316,7 +1322,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>20</v>
@@ -1327,7 +1333,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>20</v>
@@ -1338,7 +1344,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>20</v>
@@ -1349,7 +1355,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>20</v>
@@ -1360,7 +1366,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>20</v>
@@ -1371,18 +1377,18 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B55">
-        <v>22.7</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>22.7</v>
@@ -1393,7 +1399,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>22.7</v>
@@ -1404,7 +1410,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>22.7</v>
@@ -1415,7 +1421,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59">
         <v>22.7</v>
@@ -1426,7 +1432,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>22.7</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>22.7</v>
@@ -1448,7 +1454,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62">
         <v>22.7</v>
@@ -1459,7 +1465,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63">
         <v>22.7</v>
@@ -1470,7 +1476,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64">
         <v>22.7</v>
@@ -1481,7 +1487,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65">
         <v>22.7</v>
@@ -1492,7 +1498,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66">
         <v>22.7</v>
@@ -1503,7 +1509,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67">
         <v>22.7</v>
@@ -1514,7 +1520,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68">
         <v>22.7</v>
@@ -1525,7 +1531,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69">
         <v>22.7</v>
@@ -1536,7 +1542,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>22.7</v>
@@ -1547,40 +1553,40 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>6.2</v>
+        <v>22.7</v>
       </c>
       <c r="C71">
-        <v>2.2000000000000002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72">
+        <v>6.2</v>
+      </c>
+      <c r="C72">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>96</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>6</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B73">
-        <v>30</v>
-      </c>
-      <c r="C73">
-        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B74">
         <v>30</v>
@@ -1591,7 +1597,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75">
         <v>30</v>
@@ -1602,7 +1608,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B76">
         <v>30</v>
@@ -1613,7 +1619,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B77">
         <v>30</v>
@@ -1624,7 +1630,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B78">
         <v>30</v>
@@ -1635,7 +1641,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B79">
         <v>30</v>
@@ -1646,7 +1652,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B80">
         <v>30</v>
@@ -1657,7 +1663,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B81">
         <v>30</v>
@@ -1668,7 +1674,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B82">
         <v>30</v>
@@ -1679,7 +1685,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B83">
         <v>30</v>
@@ -1690,7 +1696,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B84">
         <v>30</v>
@@ -1701,7 +1707,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B85">
         <v>30</v>
@@ -1712,7 +1718,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B86">
         <v>30</v>
@@ -1723,7 +1729,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B87">
         <v>30</v>
@@ -1734,7 +1740,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B88">
         <v>30</v>
@@ -1745,7 +1751,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B89">
         <v>30</v>
@@ -1756,7 +1762,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B90">
         <v>30</v>
@@ -1767,7 +1773,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B91">
         <v>30</v>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B92">
         <v>30</v>
@@ -1789,7 +1795,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B93">
         <v>30</v>
@@ -1800,12 +1806,23 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94">
+        <v>30</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B94">
-        <v>30</v>
-      </c>
-      <c r="C94">
+      <c r="B95">
+        <v>30</v>
+      </c>
+      <c r="C95">
         <v>5</v>
       </c>
     </row>
@@ -1816,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2052,6 +2069,17 @@
         <v>50</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>43013</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
